--- a/Templates/Generic_comparison.xlsx
+++ b/Templates/Generic_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA919E3B-0363-49C7-94C7-9AE973BAE7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62B0518-9C7D-4559-AC3C-BFB0D35272BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E67D81CA-4E2B-403F-A5FA-739B76A12615}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E67D81CA-4E2B-403F-A5FA-739B76A12615}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>LIBRARY:</t>
   </si>
@@ -53,12 +56,16 @@
   <si>
     <t>&lt; |5|%</t>
   </si>
+  <si>
+    <t>Target library Vs Reference library
+(Reference-Target)/Reference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +82,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Calibri"/>
@@ -90,12 +90,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,18 +129,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -179,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -475,12 +470,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -488,19 +522,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -509,61 +540,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -578,34 +621,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1017,7 +1062,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,228 +1072,230 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:22" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="28">
         <f>[1]Values!C1</f>
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="3"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="29" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="30"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="30"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="29" t="s">
+      <c r="M6" s="13"/>
+      <c r="N6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="30"/>
+      <c r="O6" s="33"/>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="31" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="32"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:K7"/>
     <mergeCell ref="C1:D2"/>
@@ -1257,6 +1304,7 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="E1:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:XFD2 B24:XFD1048576 W8:XFD23 P3:XFD7">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
